--- a/Semantic.xlsx
+++ b/Semantic.xlsx
@@ -9,7 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="Ядро" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Главная" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Деловая фотосессия Ольга" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Love story Дарья" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Главная" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t xml:space="preserve">ФОТОГРАФ</t>
   </si>
@@ -29,6 +31,9 @@
     <t xml:space="preserve">фотограф спб</t>
   </si>
   <si>
+    <t xml:space="preserve">Love story Дарья</t>
+  </si>
+  <si>
     <t xml:space="preserve">профессиональный фотограф</t>
   </si>
   <si>
@@ -54,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">фотографа портретов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Деловая фотосессия Ольга</t>
   </si>
   <si>
     <t xml:space="preserve">фотограф +для фотосессии</t>
@@ -312,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -338,57 +346,83 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Lucida Sans"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Lucida Sans"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -406,7 +440,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,8 +491,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
         <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -510,37 +556,77 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -639,15 +725,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,22 +749,24 @@
       <c r="B2" s="1" t="n">
         <v>7758</v>
       </c>
-      <c r="C2" s="0"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>6629</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>4533</v>
@@ -685,7 +774,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3175</v>
@@ -693,7 +782,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2964</v>
@@ -701,18 +790,18 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>2838</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>2689</v>
@@ -720,7 +809,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1798</v>
@@ -728,15 +817,18 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1538</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1503</v>
@@ -744,7 +836,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1503</v>
@@ -752,7 +844,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1180</v>
@@ -760,12 +852,12 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>101405</v>
@@ -773,7 +865,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>80257</v>
@@ -781,7 +873,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>22077</v>
@@ -789,15 +881,18 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>20100</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>17200</v>
@@ -805,7 +900,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>14302</v>
@@ -813,7 +908,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>10924</v>
@@ -821,7 +916,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>9560</v>
@@ -829,7 +924,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>8777</v>
@@ -837,18 +932,18 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>8189</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>3</v>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>7680</v>
@@ -856,7 +951,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>7382</v>
@@ -864,7 +959,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>5169</v>
@@ -872,7 +967,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>3784</v>
@@ -880,7 +975,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>3739</v>
@@ -888,18 +983,18 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>3382</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>3</v>
+      <c r="C33" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>3191</v>
@@ -907,7 +1002,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>2999</v>
@@ -915,15 +1010,18 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>2939</v>
       </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>2865</v>
@@ -931,15 +1029,18 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>2829</v>
       </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>2820</v>
@@ -947,7 +1048,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>2809</v>
@@ -955,7 +1056,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>2742</v>
@@ -963,7 +1064,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2568</v>
@@ -971,7 +1072,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>2467</v>
@@ -979,7 +1080,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>2391</v>
@@ -987,7 +1088,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>2367</v>
@@ -995,7 +1096,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>2119</v>
@@ -1003,7 +1104,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>2107</v>
@@ -1011,7 +1112,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>1179</v>
@@ -1019,7 +1120,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>1909</v>
@@ -1027,7 +1128,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1851</v>
@@ -1035,7 +1136,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>1812</v>
@@ -1043,15 +1144,18 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>1792</v>
       </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>1812</v>
@@ -1059,7 +1163,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>1780</v>
@@ -1067,7 +1171,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>1605</v>
@@ -1075,18 +1179,18 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>1558</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>3</v>
+      <c r="C56" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>1503</v>
@@ -1094,7 +1198,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>1496</v>
@@ -1102,7 +1206,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>1495</v>
@@ -1110,7 +1214,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>1412</v>
@@ -1118,7 +1222,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>1343</v>
@@ -1126,7 +1230,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>1321</v>
@@ -1134,7 +1238,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>1194</v>
@@ -1142,12 +1246,12 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>14301</v>
@@ -1155,18 +1259,18 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>11681</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>3</v>
+      <c r="C69" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>7774</v>
@@ -1174,7 +1278,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>6450</v>
@@ -1182,7 +1286,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>3876</v>
@@ -1190,7 +1294,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>2169</v>
@@ -1198,7 +1302,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>1283</v>
@@ -1206,7 +1310,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>465</v>
@@ -1214,7 +1318,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>435</v>
@@ -2244,7 +2348,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>385</v>
@@ -2257,12 +2361,12 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>12274</v>
@@ -2270,18 +2374,18 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>4528</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>3</v>
+      <c r="C83" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>1278</v>
@@ -2289,7 +2393,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>1165</v>
@@ -2297,7 +2401,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>1065</v>
@@ -2305,15 +2409,18 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>1030</v>
       </c>
+      <c r="C87" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>854</v>
@@ -2321,7 +2428,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>807</v>
@@ -2329,23 +2436,23 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>6188</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>3</v>
+      <c r="C94" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>4852</v>
@@ -2353,7 +2460,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>2877</v>
@@ -2361,15 +2468,18 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>2569</v>
       </c>
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>2386</v>
@@ -2377,23 +2487,29 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>2154</v>
       </c>
+      <c r="C99" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>766</v>
       </c>
+      <c r="C100" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>454</v>
@@ -2401,12 +2517,12 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>5768</v>
@@ -2414,7 +2530,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>1523</v>
@@ -2422,7 +2538,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>1254</v>
@@ -2430,7 +2546,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>628</v>
@@ -2438,7 +2554,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>215</v>
@@ -2459,24 +2575,162 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF00FF00"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2829</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00FFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>7758</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FF0000FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>2838</v>
@@ -2484,7 +2738,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6629</v>
@@ -2492,7 +2746,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>8189</v>
@@ -2500,7 +2754,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3382</v>
@@ -2508,7 +2762,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1558</v>
@@ -2516,7 +2770,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>11681</v>
@@ -2524,7 +2778,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4528</v>
@@ -2532,7 +2786,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6188</v>
@@ -2541,7 +2795,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/Semantic.xlsx
+++ b/Semantic.xlsx
@@ -12,6 +12,10 @@
     <sheet name="Деловая фотосессия Ольга" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Love story Дарья" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Главная" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Юлия и дог Макс" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Азиз" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Ирина и Дима" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Анастасия и Эфа" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
   <si>
     <t xml:space="preserve">ФОТОГРАФ</t>
   </si>
@@ -43,9 +47,15 @@
     <t xml:space="preserve">услуги фотографа</t>
   </si>
   <si>
+    <t xml:space="preserve">Юлия и дог Макс</t>
+  </si>
+  <si>
     <t xml:space="preserve">фотограф петербург</t>
   </si>
   <si>
+    <t xml:space="preserve">Ирина и Дима</t>
+  </si>
+  <si>
     <t xml:space="preserve">фотограф детей</t>
   </si>
   <si>
@@ -73,6 +83,12 @@
     <t xml:space="preserve">фотограф питер</t>
   </si>
   <si>
+    <t xml:space="preserve">Азиз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фотограф анималист</t>
+  </si>
+  <si>
     <t xml:space="preserve">ФОТОСЕССИЯ</t>
   </si>
   <si>
@@ -121,6 +137,9 @@
     <t xml:space="preserve">фотосессия +с лошадьми</t>
   </si>
   <si>
+    <t xml:space="preserve">Анастасия и Эфа</t>
+  </si>
+  <si>
     <t xml:space="preserve">профессиональная фотосессия</t>
   </si>
   <si>
@@ -208,6 +227,9 @@
     <t xml:space="preserve">фотосессия екатерины</t>
   </si>
   <si>
+    <t xml:space="preserve">фотосессия +с животными</t>
+  </si>
+  <si>
     <t xml:space="preserve">СВАДЬБА</t>
   </si>
   <si>
@@ -266,6 +288,12 @@
   </si>
   <si>
     <t xml:space="preserve">семейная фотосъемка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фотосъемка спб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фотосъемка девушки</t>
   </si>
   <si>
     <t xml:space="preserve">LOVE STORY</t>
@@ -320,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -346,87 +374,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -440,54 +387,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -503,12 +408,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF355269"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7B59"/>
+        <bgColor rgb="FFFF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -516,23 +445,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,119 +470,71 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -678,9 +544,9 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -696,14 +562,14 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -711,7 +577,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF355269"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -719,22 +585,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ65536"/>
+  <dimension ref="A1:AMJ112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C92" activeCellId="0" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,18 +638,24 @@
       <c r="B4" s="1" t="n">
         <v>4533</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3175</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2964</v>
@@ -790,7 +663,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>2838</v>
@@ -801,7 +674,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>2689</v>
@@ -809,7 +682,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1798</v>
@@ -817,18 +690,18 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1538</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1503</v>
@@ -836,7 +709,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1503</v>
@@ -844,20 +717,34 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1180</v>
       </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>101405</v>
@@ -865,7 +752,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>80257</v>
@@ -873,7 +760,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>22077</v>
@@ -881,7 +768,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>20100</v>
@@ -892,7 +779,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>17200</v>
@@ -900,7 +787,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>14302</v>
@@ -908,7 +795,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>10924</v>
@@ -916,15 +803,18 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>9560</v>
       </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>8777</v>
@@ -932,7 +822,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>8189</v>
@@ -943,15 +833,18 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>7680</v>
       </c>
+      <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>7382</v>
@@ -959,7 +852,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>5169</v>
@@ -967,7 +860,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>3784</v>
@@ -975,15 +868,18 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>3739</v>
       </c>
+      <c r="C32" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>3382</v>
@@ -994,53 +890,62 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>3191</v>
       </c>
+      <c r="C34" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>2999</v>
       </c>
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>2939</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>2865</v>
       </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>2829</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>12</v>
+      <c r="C38" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>2820</v>
@@ -1048,7 +953,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>2809</v>
@@ -1056,7 +961,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>2742</v>
@@ -1064,7 +969,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2568</v>
@@ -1072,7 +977,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>2467</v>
@@ -1080,7 +985,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>2391</v>
@@ -1088,7 +993,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>2367</v>
@@ -1096,7 +1001,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>2119</v>
@@ -1104,7 +1009,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>2107</v>
@@ -1112,7 +1017,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>1179</v>
@@ -1120,7 +1025,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>1909</v>
@@ -1128,7 +1033,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1851</v>
@@ -1136,122 +1041,131 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>1812</v>
       </c>
+      <c r="C51" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>1792</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>12</v>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>1812</v>
+        <v>1780</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>1780</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>1605</v>
+        <v>1558</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1558</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1503</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1495</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>1412</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>1343</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>1321</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>1194</v>
+        <v>1049</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>14301</v>
@@ -1259,7 +1173,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>11681</v>
@@ -1270,7 +1184,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>7774</v>
@@ -1278,7 +1192,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>6450</v>
@@ -1286,7 +1200,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>3876</v>
@@ -1294,7 +1208,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>2169</v>
@@ -1302,7 +1216,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>1283</v>
@@ -1310,7 +1224,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>465</v>
@@ -1318,7 +1232,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>435</v>
@@ -2348,7 +2262,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>385</v>
@@ -2361,12 +2275,12 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>12274</v>
@@ -2374,7 +2288,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>4528</v>
@@ -2385,7 +2299,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>1278</v>
@@ -2393,7 +2307,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>1165</v>
@@ -2401,96 +2315,111 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>1065</v>
       </c>
+      <c r="C86" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>1030</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>12</v>
+      <c r="C87" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>854</v>
       </c>
+      <c r="C88" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>807</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" s="1" t="n">
-        <v>6188</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>4</v>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>4852</v>
+      <c r="A95" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>2877</v>
+        <v>6188</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>2569</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>2</v>
+        <v>4852</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>2386</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>2154</v>
+        <v>2569</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>2</v>
@@ -2498,69 +2427,90 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>2</v>
+        <v>2386</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B101" s="1" t="n">
+        <v>2154</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="1" t="n">
         <v>454</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>5768</v>
-      </c>
-    </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1523</v>
+      <c r="A107" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>1254</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>628</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B110" s="1" t="n">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" s="1" t="n">
         <v>215</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2573,7 +2523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00FF00"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2584,15 +2534,14 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>2939</v>
@@ -2600,7 +2549,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1792</v>
@@ -2608,7 +2557,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1538</v>
@@ -2616,7 +2565,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1030</v>
@@ -2624,7 +2573,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2829</v>
@@ -2642,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00FFFF"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2653,15 +2602,14 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>2154</v>
@@ -2669,7 +2617,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>766</v>
@@ -2677,7 +2625,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2569</v>
@@ -2685,7 +2633,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20100</v>
@@ -2711,7 +2659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF0000FF"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2722,15 +2670,14 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>2838</v>
@@ -2746,7 +2693,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>8189</v>
@@ -2754,7 +2701,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3382</v>
@@ -2762,7 +2709,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1558</v>
@@ -2770,7 +2717,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>11681</v>
@@ -2778,7 +2725,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4528</v>
@@ -2786,10 +2733,274 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6188</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF355269"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>625</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFF00"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>854</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFF7B59"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3175</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFF8000"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
